--- a/example/True Amounts.xlsx
+++ b/example/True Amounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\gephi\test\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\new_custom_python_modules\gephi\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DFFBAC-C5B0-4115-8F28-6F3294E8B858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9FEFD6-E0FC-4A94-9BB2-5AD1C3579E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13404" yWindow="900" windowWidth="8928" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1500" windowWidth="12816" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>drug delivery system.csv</t>
+    <t>scopus exports/drug delivery system.csv</t>
   </si>
   <si>
-    <t>nanomedicine.csv</t>
+    <t>scopus exports/nanomedicine.csv</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
